--- a/data/trans_media/Q33-Edad-trans_media.xlsx
+++ b/data/trans_media/Q33-Edad-trans_media.xlsx
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,95; 8,14</t>
+          <t>7,96; 8,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,89; 8,09</t>
+          <t>7,9; 8,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,32 +739,32 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,68; 7,97</t>
+          <t>7,66; 7,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,95; 8,13</t>
+          <t>7,96; 8,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,64; 7,89</t>
+          <t>7,65; 7,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,65; 7,87</t>
+          <t>7,63; 7,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,51; 7,82</t>
+          <t>7,52; 7,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 8,11</t>
+          <t>7,98; 8,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 7,92</t>
+          <t>7,76; 7,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>7,65; 7,86</t>
+          <t>7,64; 7,87</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,5; 7,65</t>
+          <t>7,49; 7,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,12 +874,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,43; 7,61</t>
+          <t>7,44; 7,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,27; 7,49</t>
+          <t>7,26; 7,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,27 +889,27 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 7,5</t>
+          <t>7,31; 7,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,45; 7,62</t>
+          <t>7,45; 7,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,42</t>
+          <t>7,2; 7,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>7,53; 7,63</t>
+          <t>7,52; 7,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,37; 7,49</t>
+          <t>7,37; 7,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,27; 7,42</t>
+          <t>7,26; 7,43</t>
         </is>
       </c>
     </row>
@@ -1004,22 +1004,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,5</t>
+          <t>7,32; 7,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,32</t>
+          <t>7,15; 7,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,41</t>
+          <t>7,25; 7,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>7,07; 7,26</t>
+          <t>7,06; 7,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,19; 7,36</t>
+          <t>7,18; 7,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,37</t>
+          <t>7,2; 7,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,32</t>
+          <t>7,19; 7,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,36</t>
+          <t>7,25; 7,37</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,08; 7,2</t>
+          <t>7,08; 7,19</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,08; 7,28</t>
+          <t>7,08; 7,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,57</t>
+          <t>7,0; 7,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 7,39</t>
+          <t>7,19; 7,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,85; 7,05</t>
+          <t>6,86; 7,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,27 +1179,27 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>6,94; 7,08</t>
+          <t>6,95; 7,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,27; 7,42</t>
+          <t>7,27; 7,41</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,99; 7,14</t>
+          <t>7,0; 7,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,28</t>
+          <t>7,15; 7,29</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,31</t>
+          <t>7,0; 7,33</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,27; 7,52</t>
+          <t>7,25; 7,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,46</t>
+          <t>7,19; 7,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,02; 7,24</t>
+          <t>7,0; 7,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,69; 6,99</t>
+          <t>6,71; 6,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,75; 7,02</t>
+          <t>6,76; 7,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,7 +1324,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,16; 7,34</t>
+          <t>7,16; 7,33</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,82; 6,94</t>
+          <t>6,81; 6,93</t>
         </is>
       </c>
     </row>
@@ -1424,22 +1424,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,32; 7,56</t>
+          <t>7,33; 7,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,55</t>
+          <t>7,25; 7,54</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,43; 7,65</t>
+          <t>7,43; 7,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>6,89; 7,04</t>
+          <t>6,88; 7,04</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1449,37 +1449,37 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,86; 7,08</t>
+          <t>6,85; 7,08</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,98; 7,2</t>
+          <t>6,97; 7,2</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,51; 6,86</t>
+          <t>6,5; 6,86</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,08; 7,24</t>
+          <t>7,09; 7,24</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,05; 7,24</t>
+          <t>7,06; 7,24</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,21; 7,36</t>
+          <t>7,2; 7,36</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,63; 6,91</t>
+          <t>6,65; 6,91</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,44</t>
+          <t>7,34; 7,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,31</t>
+          <t>7,15; 7,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,35; 7,43</t>
+          <t>7,36; 7,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,14; 7,22</t>
+          <t>7,14; 7,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,27 +1599,27 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,9; 7,07</t>
+          <t>6,91; 7,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,43; 7,49</t>
+          <t>7,44; 7,5</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,26; 7,32</t>
+          <t>7,25; 7,32</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,32; 7,39</t>
+          <t>7,33; 7,39</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,05; 7,15</t>
+          <t>7,04; 7,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q33-Edad-trans_media.xlsx
+++ b/data/trans_media/Q33-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,96; 8,14</t>
+          <t>7,96; 8,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,9; 8,1</t>
+          <t>7,89; 8,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,81; 8,03</t>
+          <t>7,83; 8,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,96; 8,14</t>
+          <t>7,96; 8,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,65; 7,89</t>
+          <t>7,64; 7,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,63; 7,86</t>
+          <t>7,64; 7,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>7,76; 7,92</t>
+          <t>7,76; 7,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,49; 7,64</t>
+          <t>7,5; 7,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,51; 7,67</t>
+          <t>7,51; 7,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 7,49</t>
+          <t>7,31; 7,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>7,45; 7,61</t>
+          <t>7,46; 7,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -914,7 +914,7 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,47; 7,6</t>
+          <t>7,48; 7,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,33</t>
+          <t>7,14; 7,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1029,12 +1029,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,18; 7,36</t>
+          <t>7,19; 7,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,37</t>
+          <t>7,21; 7,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,19; 7,31</t>
+          <t>7,19; 7,32</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,37</t>
+          <t>7,25; 7,36</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,3; 7,49</t>
+          <t>7,29; 7,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1154,7 +1154,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,22; 7,41</t>
+          <t>7,22; 7,4</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,19; 7,39</t>
+          <t>7,2; 7,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,86; 7,08</t>
+          <t>6,84; 7,05</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,02; 7,21</t>
+          <t>7,02; 7,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,27; 7,41</t>
+          <t>7,28; 7,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,15</t>
+          <t>6,99; 7,15</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 7,29</t>
+          <t>7,15; 7,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,49</t>
+          <t>7,26; 7,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7,19; 7,46</t>
+          <t>7,19; 7,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,0; 7,24</t>
+          <t>7,0; 7,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,71; 6,98</t>
+          <t>6,71; 6,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,76; 7,03</t>
+          <t>6,77; 7,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1329,12 +1329,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 7,12</t>
+          <t>6,94; 7,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>7,02; 7,2</t>
+          <t>7,0; 7,19</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,56</t>
+          <t>7,32; 7,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,25; 7,54</t>
+          <t>7,25; 7,55</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,43; 7,66</t>
+          <t>7,43; 7,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,84; 7,08</t>
+          <t>6,85; 7,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>6,97; 7,2</t>
+          <t>6,98; 7,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,09; 7,24</t>
+          <t>7,08; 7,24</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>7,2; 7,36</t>
+          <t>7,21; 7,37</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1569,7 +1569,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,34; 7,44</t>
+          <t>7,35; 7,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,36; 7,44</t>
+          <t>7,35; 7,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,44; 7,5</t>
+          <t>7,44; 7,49</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,33; 7,39</t>
+          <t>7,32; 7,39</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
